--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,132 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محسن ابراهيم موسى عبد الفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Mohsen Ibrahim Moussa Abdelftah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد مدحت عبدالعزيز على عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Medhat Abdel Aziz Ali Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جولى حازم شوقى سليمان داود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>julie hazem shawky soliman Dawoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد عبدالله ابراهيم محمود الشعراوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Abdalla Ibrahim Mahmoud ElShaarawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman ahmed mostafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سمير محمد عبدالحميد عامر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد محمود احمد النشار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو هانىء حسين احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR HANY HUSSEIN AHMED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محسن حسين اسماعيل كاظم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak Mohsen Hussein Ismail Kazem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسرى إبراهيم على محمد سحير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOSSRY IBRAHIM ALI MOHAMMED SEHAIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد حسين محمد عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +233,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +572,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="53.520625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +650,452 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45919.3544864583</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45919.3678671644</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45919.3425318634</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45919.3398643519</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45919.343727662</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45919.3470815972</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45919.3489363426</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45919.3386515856</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45919.3579609954</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45919.371934375</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45919.3526421644</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45919.3561332986</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45919.3416697569</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45919.3635611111</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1230076</x:t>
@@ -272,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -887,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.3386515856</x:v>
+        <x:v>45919.3579609954</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.3579609954</x:v>
+        <x:v>45919.371934375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.371934375</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45919.3635611111</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1064,38 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45919.3635611111</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمود حسن محمود علي بدر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mahmoud Hassan Mahmoud Aly Badr</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +582,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="36.220625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>AMR HANY HUSSEIN AHMED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220146</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45919.3635611111</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Ahmed Medhat Abdel Aziz Ali Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>1220163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220166</x:t>
   </x:si>
   <x:si>
@@ -141,6 +150,15 @@
     <x:t>Malak Mohsen Hussein Ismail Kazem</x:t>
   </x:si>
   <x:si>
+    <x:t>1230129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا خالد جمال فهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yara Khaled Gamal Fahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220295</x:t>
   </x:si>
   <x:si>
@@ -157,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -281,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -768,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.3398643519</x:v>
+        <x:v>45925.3913975347</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.343727662</x:v>
+        <x:v>45919.3398643519</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.3470815972</x:v>
+        <x:v>45919.343727662</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.3489363426</x:v>
+        <x:v>45919.3470815972</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.3579609954</x:v>
+        <x:v>45919.3489363426</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.371934375</x:v>
+        <x:v>45919.3579609954</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45919.371934375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45925.4981832176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1164,102 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45919.3635611111</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>3230001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أسر وليد حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aser Waled Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230001</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
+    <x:t>4230141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود فريد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Fared Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230142</x:t>
   </x:si>
   <x:si>
@@ -69,6 +87,15 @@
     <x:t>Adham Medhat Abdelmoaz Heba</x:t>
   </x:si>
   <x:si>
+    <x:t>1220041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال عاطف محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belal Atef Mohammed Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220166</x:t>
   </x:si>
   <x:si>
@@ -78,6 +105,42 @@
     <x:t>julie hazem shawky soliman Dawoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1220008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد اشرف وفا محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled ashraf wafa mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامز لبيب حلمى لبيب معوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramez Labib Helmy Labib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمود عبد العال عمر عبد العال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZYAD MAHMOUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد حسن احمد بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Hasan Ahmed Bakr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220181</x:t>
   </x:si>
   <x:si>
@@ -114,15 +177,6 @@
     <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240036</x:t>
   </x:si>
   <x:si>
@@ -132,6 +186,42 @@
     <x:t>AMR HANY HUSSEIN AHMED</x:t>
   </x:si>
   <x:si>
+    <x:t>1220074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارى مرقص جورج ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Morcos George Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد اشرف محمد مصلحى زمزم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ashraf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد امام محمد رضوان ياسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muhammed emam muhammed radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مصطفى سيد امين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230304</x:t>
   </x:si>
   <x:si>
@@ -166,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>YOSSRY IBRAHIM ALI MOHAMMED SEHAIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف فرج حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Farag</x:t>
   </x:si>
   <x:si>
     <x:t>4230188</x:t>
@@ -308,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -699,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45919.3544864583</x:v>
+        <x:v>45927.6165861458</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -731,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45919.3678671644</x:v>
+        <x:v>45919.3544864583</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -763,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45919.3425318634</x:v>
+        <x:v>45919.3678671644</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -795,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45925.3913975347</x:v>
+        <x:v>45927.6520380787</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.3398643519</x:v>
+        <x:v>45919.3425318634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.343727662</x:v>
+        <x:v>45925.3913975347</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.3470815972</x:v>
+        <x:v>45927.4144412847</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.3489363426</x:v>
+        <x:v>45927.4355128472</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.3579609954</x:v>
+        <x:v>45927.415853669</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.371934375</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45927.6415306713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.4149296644</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45919.343727662</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45925.4981832176</x:v>
+        <x:v>45919.3470815972</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45919.3489363426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45919.3579609954</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1359,358 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.4144977199</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.6701080671</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.4143572917</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45924.5270644329</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45919.3561332986</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45925.4981832176</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45919.3416697569</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.4150659722</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45919.3635611111</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Muhammed emam muhammed radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مدحت محمود محمد متولي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220199</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45925.4981832176</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45925.4981832176</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4150659722</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45927.4150659722</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45919.3635611111</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45925.5280697917</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
   </x:si>
   <x:si>
+    <x:t>1230218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى ابراهيم عبده الريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240036</x:t>
   </x:si>
   <x:si>
@@ -247,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Mohsen Hussein Ismail Kazem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند احمد محمد قديره</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohanad ahmed mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230129</x:t>
@@ -416,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1319,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45929.3158314005</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4144977199</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.6701080671</x:v>
+        <x:v>45927.4144977199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6812292477</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45925.4981832176</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45929.3045449074</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4150659722</x:v>
+        <x:v>45925.4981832176</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45927.4150659722</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45919.3635611111</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1770,70 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
+    <x:t>1220029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد اسامه شحاته احمد مرعوه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Osama Shehata Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230141</x:t>
   </x:si>
   <x:si>
@@ -283,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>YOSSRY IBRAHIM ALI MOHAMMED SEHAIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>4230187</x:t>
@@ -434,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -921,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.6520380787</x:v>
+        <x:v>45930.4139991088</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -953,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.3425318634</x:v>
+        <x:v>45927.6520380787</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45925.3913975347</x:v>
+        <x:v>45919.3425318634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4144412847</x:v>
+        <x:v>45925.3913975347</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4355128472</x:v>
+        <x:v>45927.4144412847</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.415853669</x:v>
+        <x:v>45927.4355128472</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4159328704</x:v>
+        <x:v>45927.415853669</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.6415306713</x:v>
+        <x:v>45927.4159328704</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4149296644</x:v>
+        <x:v>45927.6415306713</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.343727662</x:v>
+        <x:v>45927.4149296644</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.3470815972</x:v>
+        <x:v>45919.343727662</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.3489363426</x:v>
+        <x:v>45919.3470815972</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.3579609954</x:v>
+        <x:v>45919.3489363426</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45929.3158314005</x:v>
+        <x:v>45919.3579609954</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45929.3158314005</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4144977199</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6701080671</x:v>
+        <x:v>45927.4144977199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.6812292477</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.3045449074</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45925.4981832176</x:v>
+        <x:v>45929.3045449074</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45925.4981832176</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4150659722</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45930.408868831</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45927.4150659722</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45919.3635611111</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1835,6 +1853,70 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1847,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Signal Analysis for Mechatronic Systems (EECS303) Location : [18203]18203-30-الجيزة الرئيسي Time : Wednesday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
   </x:si>
   <x:si>
+    <x:t>1220260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي الدين أحمد جمال على عبد المجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alyeldeen Ahmed Gamal Aly Abdelmegid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230076</x:t>
   </x:si>
   <x:si>
@@ -231,6 +240,15 @@
     <x:t>Muhammed emam muhammed radwan</x:t>
   </x:si>
   <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220023</x:t>
   </x:si>
   <x:si>
@@ -256,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>MARAWAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم إيهاب نوبي الصاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1220146</x:t>
@@ -452,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1355,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.3579609954</x:v>
+        <x:v>45931.3146706019</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.3158314005</x:v>
+        <x:v>45919.3579609954</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45929.3158314005</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4144977199</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.6701080671</x:v>
+        <x:v>45927.4144977199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.6812292477</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45931.3163642014</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.3045449074</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45925.4981832176</x:v>
+        <x:v>45931.3123583333</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45930.408868831</x:v>
+        <x:v>45929.3045449074</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4150659722</x:v>
+        <x:v>45925.4981832176</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45930.408868831</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45927.4150659722</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1943,102 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45919.3635611111</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1220260</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1382,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45931.3146706019</x:v>
+        <x:v>45933.5322648958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.3579609954</x:v>
+        <x:v>45931.3146706019</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45929.3158314005</x:v>
+        <x:v>45919.3579609954</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45919.3526421644</x:v>
+        <x:v>45929.3158314005</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4148462153</x:v>
+        <x:v>45919.3526421644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4144977199</x:v>
+        <x:v>45927.4148462153</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.6701080671</x:v>
+        <x:v>45927.4144977199</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45931.3163642014</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.6812292477</x:v>
+        <x:v>45931.3163642014</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4143572917</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45924.5270644329</x:v>
+        <x:v>45927.4143572917</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45931.3123583333</x:v>
+        <x:v>45924.5270644329</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.3561332986</x:v>
+        <x:v>45931.3123583333</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45929.3045449074</x:v>
+        <x:v>45919.3561332986</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45925.4981832176</x:v>
+        <x:v>45929.3045449074</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45919.3416697569</x:v>
+        <x:v>45925.4981832176</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45930.408868831</x:v>
+        <x:v>45919.3416697569</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4150659722</x:v>
+        <x:v>45930.408868831</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45919.3635611111</x:v>
+        <x:v>45927.4150659722</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45919.3635611111</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45923.7979701389</x:v>
+        <x:v>45925.5280697917</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45923.7979701389</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS303_Tutorial-35907.xlsx
+++ b/downloaded_files/EECS303_Tutorial-35907.xlsx
@@ -93,7 +93,7 @@
     <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
   </x:si>
   <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+    <x:t>Adham Medhat Abdelmoaz Elazab Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1220041</x:t>
